--- a/planning/功能模块划分及开发时间安排.xlsx
+++ b/planning/功能模块划分及开发时间安排.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -158,37 +158,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熊涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张云瑞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止2015-11-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止2015-11-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>截止2015-11-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止2015-11-13</t>
-  </si>
-  <si>
-    <t>截止2015-11-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,41 +182,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>截止2015-11-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止2015-11-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止2015-11-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胡明星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>截止2015-11-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>陈佳俊</t>
+  </si>
+  <si>
+    <t>截止2017-05-07</t>
+  </si>
+  <si>
+    <t>截止2017-05-08</t>
+  </si>
+  <si>
+    <t>截止2017-05-09</t>
+  </si>
+  <si>
+    <t>截止2017-05-10</t>
+  </si>
+  <si>
+    <t>截止2017-05-11</t>
+  </si>
+  <si>
+    <t>截止2017-05-12</t>
+  </si>
+  <si>
+    <t>截止2017-05-13</t>
+  </si>
+  <si>
+    <t>截止2017-05-14</t>
+  </si>
+  <si>
+    <t>截止2017-05-15</t>
+  </si>
+  <si>
+    <t>截止2017-05-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -252,7 +242,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -344,6 +334,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -356,33 +370,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -390,12 +380,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -437,7 +430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,7 +465,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -684,23 +677,23 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
@@ -708,96 +701,96 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15" t="s">
-        <v>50</v>
+      <c r="D3" s="12"/>
+      <c r="E3" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -806,46 +799,46 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>40</v>
+      <c r="D8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15" t="s">
-        <v>41</v>
+      <c r="D9" s="12"/>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15" t="s">
-        <v>42</v>
+      <c r="D10" s="13"/>
+      <c r="E10" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -854,44 +847,44 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>37</v>
+      <c r="D11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15" t="s">
-        <v>37</v>
+      <c r="D12" s="12"/>
+      <c r="E12" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
-        <v>38</v>
+      <c r="D13" s="13"/>
+      <c r="E13" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -904,8 +897,8 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
@@ -918,8 +911,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14"/>
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
@@ -930,8 +923,8 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
@@ -942,8 +935,8 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -956,8 +949,8 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14"/>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
@@ -968,8 +961,8 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14"/>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
@@ -980,8 +973,8 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14"/>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -994,8 +987,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:6">
+      <c r="A22" s="14"/>
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1006,8 +999,8 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1015,15 +1008,15 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
+    <row r="24" spans="1:6">
+      <c r="A24" s="14"/>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1034,17 +1027,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1058,7 +1051,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1071,7 +1064,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/功能模块划分及开发时间安排.xlsx
+++ b/planning/功能模块划分及开发时间安排.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>功能模块列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,37 +158,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熊涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张云瑞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止2015-11-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止2015-11-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>截止2015-11-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止2015-11-13</t>
-  </si>
-  <si>
-    <t>截止2015-11-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,41 +182,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>截止2015-11-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止2015-11-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止2015-11-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡明星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止2015-11-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>截止2017-05-11</t>
+  </si>
+  <si>
+    <t>截止2017-05-12</t>
+  </si>
+  <si>
+    <t>截止2017-05-13</t>
+  </si>
+  <si>
+    <t>截止2017-05-14</t>
+  </si>
+  <si>
+    <t>截止2017-05-15</t>
+  </si>
+  <si>
+    <t>截止2017-05-16</t>
+  </si>
+  <si>
+    <t>截止2017-05-17</t>
+  </si>
+  <si>
+    <t>截止2017-05-18</t>
+  </si>
+  <si>
+    <t>截止2017-05-19</t>
+  </si>
+  <si>
+    <t>截止2017-05-10</t>
+  </si>
+  <si>
+    <t>陈佳俊</t>
+  </si>
+  <si>
+    <t>测试环境0506，生产环境0510</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -252,7 +241,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -344,6 +333,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -356,33 +369,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -390,12 +379,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -437,7 +429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,7 +464,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,24 +675,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
@@ -708,96 +700,96 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15" t="s">
-        <v>50</v>
+      <c r="D3" s="12"/>
+      <c r="E3" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -806,46 +798,46 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>40</v>
+      <c r="D8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15" t="s">
-        <v>41</v>
+      <c r="D9" s="12"/>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15" t="s">
-        <v>42</v>
+      <c r="D10" s="13"/>
+      <c r="E10" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -854,44 +846,44 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>37</v>
+      <c r="D11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15" t="s">
-        <v>37</v>
+      <c r="D12" s="12"/>
+      <c r="E12" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
-        <v>38</v>
+      <c r="D13" s="13"/>
+      <c r="E13" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -904,8 +896,8 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
@@ -918,8 +910,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14"/>
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
@@ -930,8 +922,8 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
@@ -942,8 +934,8 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -956,8 +948,8 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14"/>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
@@ -968,8 +960,8 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14"/>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
@@ -980,8 +972,8 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14"/>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -994,8 +986,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:6">
+      <c r="A22" s="14"/>
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1006,8 +998,8 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1017,13 +1009,15 @@
       <c r="D23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="14"/>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1034,17 +1028,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1058,7 +1052,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1071,7 +1065,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/功能模块划分及开发时间安排.xlsx
+++ b/planning/功能模块划分及开发时间安排.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>功能模块列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,9 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>截止2017-05-11</t>
-  </si>
-  <si>
     <t>截止2017-05-12</t>
   </si>
   <si>
@@ -216,13 +213,19 @@
   </si>
   <si>
     <t>测试环境0506，生产环境0510</t>
+  </si>
+  <si>
+    <t>创建数据、编写views、修改html和JS 完成</t>
+  </si>
+  <si>
+    <t>上传文件位置修改、</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +244,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
@@ -319,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -336,6 +347,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -354,21 +380,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -689,10 +705,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
@@ -706,90 +722,94 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:6" s="21" customFormat="1">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1"/>
+      <c r="D2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="17"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="8" t="s">
-        <v>43</v>
+      <c r="D4" s="17"/>
+      <c r="E4" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="17"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="17"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -798,46 +818,46 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>51</v>
+      <c r="D8" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -846,44 +866,44 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>51</v>
+      <c r="D11" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -897,7 +917,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="14"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
@@ -911,7 +931,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="14"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
@@ -923,7 +943,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
@@ -935,7 +955,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -949,7 +969,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
@@ -961,7 +981,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
@@ -973,7 +993,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -987,7 +1007,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="14"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
@@ -999,7 +1019,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1007,17 +1027,17 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1028,17 +1048,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/功能模块划分及开发时间安排.xlsx
+++ b/planning/功能模块划分及开发时间安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>功能模块列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,7 +218,19 @@
     <t>创建数据、编写views、修改html和JS 完成</t>
   </si>
   <si>
-    <t>上传文件位置修改、</t>
+    <t>上传文件位置修改、多余的已经隐藏 需要前端js</t>
+  </si>
+  <si>
+    <t>填充数据 替换html代码</t>
+  </si>
+  <si>
+    <t>插入课程的数据到AD，用职业课程内容来显示</t>
+  </si>
+  <si>
+    <t>添加了自定义filter 自动换行，插入数据</t>
+  </si>
+  <si>
+    <t>教师风采依赖账号注册，需要用户模块</t>
   </si>
 </sst>
 </file>
@@ -347,44 +359,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,7 +704,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -705,10 +717,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
@@ -722,94 +734,102 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" s="10" customFormat="1">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="10"/>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:6" s="10" customFormat="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="10"/>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:6" s="10" customFormat="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="1" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="10" customFormat="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="1" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -818,7 +838,7 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -827,14 +847,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="7" t="s">
         <v>44</v>
       </c>
@@ -843,21 +863,21 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -866,7 +886,7 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -875,35 +895,35 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -917,7 +937,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
@@ -931,7 +951,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="12"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
@@ -943,7 +963,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="12"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
@@ -955,7 +975,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -969,7 +989,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="12"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
@@ -981,7 +1001,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="12"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
@@ -993,7 +1013,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="12"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1007,7 +1027,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="12"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1019,7 +1039,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1037,7 +1057,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="12"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1048,17 +1068,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/功能模块划分及开发时间安排.xlsx
+++ b/planning/功能模块划分及开发时间安排.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>功能模块列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,14 +230,17 @@
     <t>添加了自定义filter 自动换行，插入数据</t>
   </si>
   <si>
-    <t>教师风采依赖账号注册，需要用户模块</t>
+    <t>修改admin添加图片等内容，改写前端。</t>
+  </si>
+  <si>
+    <t>html添加判断显示登录按钮，和登录表格。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +270,13 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -364,14 +374,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,20 +398,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,7 +714,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -717,10 +727,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
@@ -735,7 +745,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="10" customFormat="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -744,7 +754,7 @@
       <c r="C2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -755,14 +765,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="10" customFormat="1">
-      <c r="A3" s="20"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="9" t="s">
         <v>41</v>
       </c>
@@ -771,65 +781,65 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="19" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="20"/>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:6" s="10" customFormat="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1">
-      <c r="A6" s="20"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1">
-      <c r="A7" s="21"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -838,23 +848,25 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="17"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="7" t="s">
         <v>44</v>
       </c>
@@ -863,21 +875,21 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="17"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -886,7 +898,7 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -895,35 +907,35 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="17"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="17"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -937,7 +949,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="17"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
@@ -951,7 +963,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="17"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
@@ -963,7 +975,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="17"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
@@ -975,7 +987,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -989,7 +1001,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="17"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1001,7 +1013,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="17"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1013,7 +1025,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="17"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1027,7 +1039,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="17"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1039,7 +1051,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1057,7 +1069,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="17"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1068,17 +1080,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
